--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.2712456169084</v>
+        <v>195.9683072170487</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.503015401775</v>
+        <v>268.1324834457876</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.2718504231452</v>
+        <v>242.5422955521041</v>
       </c>
       <c r="AD2" t="n">
-        <v>147271.2456169084</v>
+        <v>195968.3072170487</v>
       </c>
       <c r="AE2" t="n">
-        <v>201503.015401775</v>
+        <v>268132.4834457876</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.205725860864752e-06</v>
+        <v>4.081170333457225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.888020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182271.8504231452</v>
+        <v>242542.2955521041</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.0342104868428</v>
+        <v>149.6210123278769</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.6583935054538</v>
+        <v>204.7180698801115</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.8980134937543</v>
+        <v>185.1800646144276</v>
       </c>
       <c r="AD3" t="n">
-        <v>113034.2104868428</v>
+        <v>149621.0123278769</v>
       </c>
       <c r="AE3" t="n">
-        <v>154658.3935054538</v>
+        <v>204718.0698801115</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733734122400674e-06</v>
+        <v>5.058123857480336e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.559895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>139898.0134937543</v>
+        <v>185180.0646144276</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.0658041929606</v>
+        <v>147.4820138334025</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.9651331742087</v>
+        <v>201.7913977740196</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.4617941485077</v>
+        <v>182.5327099865301</v>
       </c>
       <c r="AD4" t="n">
-        <v>111065.8041929606</v>
+        <v>147482.0138334025</v>
       </c>
       <c r="AE4" t="n">
-        <v>151965.1331742087</v>
+        <v>201791.3977740196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.783824999428926e-06</v>
+        <v>5.150805094496984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>137461.7941485077</v>
+        <v>182532.7099865301</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.2486510559086</v>
+        <v>163.4545361080392</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.4754623057852</v>
+        <v>223.6457074081171</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.7283304647281</v>
+        <v>202.3012749818725</v>
       </c>
       <c r="AD2" t="n">
-        <v>128248.6510559086</v>
+        <v>163454.5361080392</v>
       </c>
       <c r="AE2" t="n">
-        <v>175475.4623057852</v>
+        <v>223645.7074081171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.564161291678703e-06</v>
+        <v>4.887687155102218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>158728.3304647281</v>
+        <v>202301.2749818725</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.6151887543669</v>
+        <v>139.7357329519259</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.1391165500608</v>
+        <v>191.1925945301952</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.4781201635735</v>
+        <v>172.9454416487791</v>
       </c>
       <c r="AD3" t="n">
-        <v>104615.1887543669</v>
+        <v>139735.732951926</v>
       </c>
       <c r="AE3" t="n">
-        <v>143139.1165500608</v>
+        <v>191192.5945301952</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.917906987428788e-06</v>
+        <v>5.561981045623609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>129478.1201635735</v>
+        <v>172945.4416487791</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.42586872784119</v>
+        <v>121.8161962014134</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.7246629011585</v>
+        <v>166.6742937939893</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.9165547225595</v>
+        <v>150.7671331231777</v>
       </c>
       <c r="AD2" t="n">
-        <v>90425.8687278412</v>
+        <v>121816.1962014134</v>
       </c>
       <c r="AE2" t="n">
-        <v>123724.6629011585</v>
+        <v>166674.2937939893</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.133310327076462e-06</v>
+        <v>6.673131000166292e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>111916.5547225595</v>
+        <v>150767.1331231777</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.22340743301314</v>
+        <v>127.9682033710215</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.2888670100415</v>
+        <v>175.0917414108442</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8542804042111</v>
+        <v>158.3812313534446</v>
       </c>
       <c r="AD2" t="n">
-        <v>95223.40743301314</v>
+        <v>127968.2033710215</v>
       </c>
       <c r="AE2" t="n">
-        <v>130288.8670100415</v>
+        <v>175091.7414108442</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092962827361488e-06</v>
+        <v>6.279783874723415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>117854.2804042111</v>
+        <v>158381.2313534446</v>
       </c>
     </row>
   </sheetData>
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.948272677782</v>
+        <v>117.0877375687621</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.9664625647601</v>
+        <v>160.2046080879267</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.6124703480893</v>
+        <v>144.9149051406387</v>
       </c>
       <c r="AD2" t="n">
-        <v>86948.27267778201</v>
+        <v>117087.7375687621</v>
       </c>
       <c r="AE2" t="n">
-        <v>118966.4625647601</v>
+        <v>160204.6080879267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099149597690286e-06</v>
+        <v>6.901200815632866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.87890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>107612.4703480893</v>
+        <v>144914.9051406387</v>
       </c>
     </row>
   </sheetData>
@@ -3555,28 +3555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.944987230127</v>
+        <v>168.4914268668815</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.901196647077</v>
+        <v>230.537403556299</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.5408017390639</v>
+        <v>208.5352373222303</v>
       </c>
       <c r="AD2" t="n">
-        <v>132944.987230127</v>
+        <v>168491.4268668815</v>
       </c>
       <c r="AE2" t="n">
-        <v>181901.196647077</v>
+        <v>230537.403556299</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.461968637169564e-06</v>
+        <v>4.655000852449069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>164540.8017390639</v>
+        <v>208535.2373222303</v>
       </c>
     </row>
     <row r="3">
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3483350562556</v>
+        <v>141.8094338384385</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5104837813222</v>
+        <v>194.0299235683465</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6231674345189</v>
+        <v>175.5119799857465</v>
       </c>
       <c r="AD3" t="n">
-        <v>106348.3350562556</v>
+        <v>141809.4338384384</v>
       </c>
       <c r="AE3" t="n">
-        <v>145510.4837813222</v>
+        <v>194029.9235683465</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.877888283398756e-06</v>
+        <v>5.441406608605686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>131623.1674345189</v>
+        <v>175511.9799857465</v>
       </c>
     </row>
     <row r="4">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5091006351624</v>
+        <v>141.9701994173452</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7304503388591</v>
+        <v>194.2498901258834</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.8221406925296</v>
+        <v>175.7109532437572</v>
       </c>
       <c r="AD4" t="n">
-        <v>106509.1006351624</v>
+        <v>141970.1994173452</v>
       </c>
       <c r="AE4" t="n">
-        <v>145730.4503388591</v>
+        <v>194249.8901258835</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.877290044450725e-06</v>
+        <v>5.440275480137593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>131822.1406925296</v>
+        <v>175710.9532437572</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.43823446921994</v>
+        <v>124.7517500775953</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.5828028384795</v>
+        <v>170.6908481148761</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.1201634097245</v>
+        <v>154.4003531369498</v>
       </c>
       <c r="AD2" t="n">
-        <v>95438.23446921994</v>
+        <v>124751.7500775953</v>
       </c>
       <c r="AE2" t="n">
-        <v>130582.8028384795</v>
+        <v>170690.8481148761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019804070516285e-06</v>
+        <v>6.92310239809731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>118120.1634097245</v>
+        <v>154400.3531369498</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8611568171103</v>
+        <v>138.0470288170808</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.1074167879655</v>
+        <v>188.8820350325328</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5448843787726</v>
+        <v>170.8553987066822</v>
       </c>
       <c r="AD2" t="n">
-        <v>103861.1568171103</v>
+        <v>138047.0288170808</v>
       </c>
       <c r="AE2" t="n">
-        <v>142107.4167879655</v>
+        <v>188882.0350325328</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86929359981347e-06</v>
+        <v>5.623775802185705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.64453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>128544.8843787726</v>
+        <v>170855.3987066822</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.0612602098194</v>
+        <v>134.0765400091977</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.9082306102657</v>
+        <v>183.4494370799861</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.8419012327672</v>
+        <v>165.9412802780257</v>
       </c>
       <c r="AD3" t="n">
-        <v>100061.2602098194</v>
+        <v>134076.5400091977</v>
       </c>
       <c r="AE3" t="n">
-        <v>136908.2306102657</v>
+        <v>183449.4370799861</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.012120150380342e-06</v>
+        <v>5.903713867443247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>123841.9012327672</v>
+        <v>165941.2802780257</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.2488825185334</v>
+        <v>158.6617098734078</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.5838731329886</v>
+        <v>217.0879511093273</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.9260438375379</v>
+        <v>196.3693817403683</v>
       </c>
       <c r="AD2" t="n">
-        <v>112248.8825185334</v>
+        <v>158661.7098734078</v>
       </c>
       <c r="AE2" t="n">
-        <v>153583.8731329886</v>
+        <v>217087.9511093273</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658938473811564e-06</v>
+        <v>5.112349196419371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.970052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138926.0438375379</v>
+        <v>196369.3817403683</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.4790301664263</v>
+        <v>138.2460697638473</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.5845742462618</v>
+        <v>189.1543716369654</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.0719411954348</v>
+        <v>171.1017438878147</v>
       </c>
       <c r="AD3" t="n">
-        <v>103479.0301664263</v>
+        <v>138246.0697638473</v>
       </c>
       <c r="AE3" t="n">
-        <v>141584.5742462618</v>
+        <v>189154.3716369654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.93370268093108e-06</v>
+        <v>5.64063918406194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>128071.9411954348</v>
+        <v>171101.7438878147</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.8388631606901</v>
+        <v>190.124944063596</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.0701900653813</v>
+        <v>260.1373361882492</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.5484035048186</v>
+        <v>235.310193927563</v>
       </c>
       <c r="AD2" t="n">
-        <v>141838.8631606901</v>
+        <v>190124.944063596</v>
       </c>
       <c r="AE2" t="n">
-        <v>194070.1900653813</v>
+        <v>260137.3361882492</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.295119221349369e-06</v>
+        <v>4.27563303278774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>175548.4035048186</v>
+        <v>235310.193927563</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.7261973293521</v>
+        <v>147.0047636474602</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.5004680810223</v>
+        <v>201.1384030148215</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.0414760396533</v>
+        <v>181.9420361306657</v>
       </c>
       <c r="AD3" t="n">
-        <v>110726.1973293521</v>
+        <v>147004.7636474602</v>
       </c>
       <c r="AE3" t="n">
-        <v>151500.4680810223</v>
+        <v>201138.4030148215</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.779445185710266e-06</v>
+        <v>5.17789556999953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>137041.4760396533</v>
+        <v>181942.0361306657</v>
       </c>
     </row>
     <row r="4">
@@ -5379,28 +5379,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.6382653252462</v>
+        <v>145.7462394427621</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.0119115168327</v>
+        <v>199.416434675785</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.6949852247473</v>
+        <v>180.3844100331086</v>
       </c>
       <c r="AD4" t="n">
-        <v>109638.2653252462</v>
+        <v>145746.2394427621</v>
       </c>
       <c r="AE4" t="n">
-        <v>150011.9115168327</v>
+        <v>199416.434675785</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.808572975065563e-06</v>
+        <v>5.232158432329779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.455729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>135694.9852247472</v>
+        <v>180384.4100331086</v>
       </c>
     </row>
   </sheetData>
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.62165351436948</v>
+        <v>130.812511781104</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5702531017015</v>
+        <v>178.9834496595481</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8224956127384</v>
+        <v>161.9015204289402</v>
       </c>
       <c r="AD2" t="n">
-        <v>97621.65351436948</v>
+        <v>130812.511781104</v>
       </c>
       <c r="AE2" t="n">
-        <v>133570.2531017015</v>
+        <v>178983.4496595481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.035137344922362e-06</v>
+        <v>6.083924779850423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120822.4956127384</v>
+        <v>161901.5204289402</v>
       </c>
     </row>
     <row r="3">
@@ -5782,28 +5782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.94109111104552</v>
+        <v>130.13194937778</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.6390775971799</v>
+        <v>178.0522741550265</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.980190191455</v>
+        <v>161.0592150076568</v>
       </c>
       <c r="AD3" t="n">
-        <v>96941.09111104552</v>
+        <v>130131.94937778</v>
       </c>
       <c r="AE3" t="n">
-        <v>132639.0775971799</v>
+        <v>178052.2741550264</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.066623703604937e-06</v>
+        <v>6.147039102547105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>119980.190191455</v>
+        <v>161059.2150076568</v>
       </c>
     </row>
   </sheetData>
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.05582276628131</v>
+        <v>123.991569786897</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.9548379250483</v>
+        <v>169.6507359043558</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.9338849722402</v>
+        <v>153.4595077759945</v>
       </c>
       <c r="AD2" t="n">
-        <v>92055.82276628132</v>
+        <v>123991.569786897</v>
       </c>
       <c r="AE2" t="n">
-        <v>125954.8379250483</v>
+        <v>169650.7359043558</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.13008134807886e-06</v>
+        <v>6.548325928948326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.514322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>113933.8849722402</v>
+        <v>153459.5077759945</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.81472442072304</v>
+        <v>119.6108800294046</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.5202241814902</v>
+        <v>163.6568829157654</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.9225045403464</v>
+        <v>148.0376997042077</v>
       </c>
       <c r="AD2" t="n">
-        <v>88814.72442072304</v>
+        <v>119610.8800294046</v>
       </c>
       <c r="AE2" t="n">
-        <v>121520.2241814902</v>
+        <v>163656.8829157653</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.119655697139963e-06</v>
+        <v>6.781681537194419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>109922.5045403464</v>
+        <v>148037.6997042077</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.61414618810808</v>
+        <v>131.5783146976982</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.087004779168</v>
+        <v>180.0312549948721</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.8625608143183</v>
+        <v>162.8493246936653</v>
       </c>
       <c r="AD2" t="n">
-        <v>93614.14618810808</v>
+        <v>131578.3146976982</v>
       </c>
       <c r="AE2" t="n">
-        <v>128087.004779168</v>
+        <v>180031.2549948721</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.873704259035487e-06</v>
+        <v>6.835183065306982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115862.5608143183</v>
+        <v>162849.3246936653</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.83098052044</v>
+        <v>142.4007494239002</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.5391047151197</v>
+        <v>194.8389876393775</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.4581796335828</v>
+        <v>176.243828117367</v>
       </c>
       <c r="AD2" t="n">
-        <v>107830.98052044</v>
+        <v>142400.7494239002</v>
       </c>
       <c r="AE2" t="n">
-        <v>147539.1047151198</v>
+        <v>194838.9876393775</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767661076080504e-06</v>
+        <v>5.370862735359874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133458.1796335828</v>
+        <v>176243.828117367</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.6332192905722</v>
+        <v>136.0323959934402</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.0590543744908</v>
+        <v>186.1255255239017</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.7874533956354</v>
+        <v>168.3619665967686</v>
       </c>
       <c r="AD3" t="n">
-        <v>101633.2192905722</v>
+        <v>136032.3959934402</v>
       </c>
       <c r="AE3" t="n">
-        <v>139059.0543744908</v>
+        <v>186125.5255239017</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.980321359263804e-06</v>
+        <v>5.783546643845438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125787.4533956354</v>
+        <v>168361.9665967686</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.0559956909082</v>
+        <v>172.9312364572605</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.5260597880082</v>
+        <v>236.6121469084278</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.6288358363714</v>
+        <v>214.0302156947898</v>
       </c>
       <c r="AD2" t="n">
-        <v>137055.9956909082</v>
+        <v>172931.2364572605</v>
       </c>
       <c r="AE2" t="n">
-        <v>187526.0597880082</v>
+        <v>236612.1469084278</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.384645573283027e-06</v>
+        <v>4.474530423210063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>169628.8358363714</v>
+        <v>214030.2156947898</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.8636705551467</v>
+        <v>143.6535704669274</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.583832662788</v>
+        <v>196.55315266101</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.4986388087017</v>
+        <v>177.7943956351812</v>
       </c>
       <c r="AD3" t="n">
-        <v>107863.6705551467</v>
+        <v>143653.5704669274</v>
       </c>
       <c r="AE3" t="n">
-        <v>147583.832662788</v>
+        <v>196553.15266101</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845812592782701e-06</v>
+        <v>5.339860634982999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>133498.6388087017</v>
+        <v>177794.3956351813</v>
       </c>
     </row>
     <row r="4">
@@ -11174,28 +11174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.1723031795162</v>
+        <v>143.9622030912969</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.0061174353606</v>
+        <v>196.9754374335826</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.8806213152604</v>
+        <v>178.17637814174</v>
       </c>
       <c r="AD4" t="n">
-        <v>108172.3031795162</v>
+        <v>143962.2030912969</v>
       </c>
       <c r="AE4" t="n">
-        <v>148006.1174353606</v>
+        <v>196975.4374335826</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.844294269347958e-06</v>
+        <v>5.337011664688567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>133880.6213152604</v>
+        <v>178176.37814174</v>
       </c>
     </row>
   </sheetData>
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.0715715640599</v>
+        <v>138.712343416993</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6588272938139</v>
+        <v>189.7923478197408</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3299848293251</v>
+        <v>171.6788325191114</v>
       </c>
       <c r="AD2" t="n">
-        <v>102071.5715640599</v>
+        <v>138712.343416993</v>
       </c>
       <c r="AE2" t="n">
-        <v>139658.827293814</v>
+        <v>189792.3478197408</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.525117118214676e-06</v>
+        <v>6.315126282699402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>126329.9848293251</v>
+        <v>171678.8325191114</v>
       </c>
     </row>
   </sheetData>
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.74474182016105</v>
+        <v>126.0159905425972</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.2656914844154</v>
+        <v>172.4206376934438</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.0241939112054</v>
+        <v>155.9650540259144</v>
       </c>
       <c r="AD2" t="n">
-        <v>93744.74182016106</v>
+        <v>126015.9905425972</v>
       </c>
       <c r="AE2" t="n">
-        <v>128265.6914844154</v>
+        <v>172420.6376934438</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.113250844049188e-06</v>
+        <v>6.411065964126025e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>116024.1939112054</v>
+        <v>155965.0540259144</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.80154576678862</v>
+        <v>133.4148755525166</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5528778515187</v>
+        <v>182.5441185797799</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.5204628425741</v>
+        <v>165.1223641048564</v>
       </c>
       <c r="AD2" t="n">
-        <v>99801.54576678862</v>
+        <v>133414.8755525166</v>
       </c>
       <c r="AE2" t="n">
-        <v>136552.8778515187</v>
+        <v>182544.1185797799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984161396648402e-06</v>
+        <v>5.912173146035466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>123520.4628425741</v>
+        <v>165122.3641048564</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.02532246713248</v>
+        <v>132.6386522528605</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.4908148883746</v>
+        <v>181.4820556166358</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.5597616780174</v>
+        <v>164.1616629402997</v>
       </c>
       <c r="AD3" t="n">
-        <v>99025.32246713249</v>
+        <v>132638.6522528605</v>
       </c>
       <c r="AE3" t="n">
-        <v>135490.8148883746</v>
+        <v>181482.0556166358</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02159296557153e-06</v>
+        <v>5.986331975665071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122559.7616780174</v>
+        <v>164161.6629402997</v>
       </c>
     </row>
   </sheetData>
